--- a/data/pca/factorExposure/factorExposure_2016-07-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01082237328131647</v>
+        <v>0.01306006849514212</v>
       </c>
       <c r="C2">
-        <v>-0.04793943083944391</v>
+        <v>0.04121889986472075</v>
       </c>
       <c r="D2">
-        <v>-0.03345104866415154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06278591576252432</v>
+      </c>
+      <c r="E2">
+        <v>0.06851444782798959</v>
+      </c>
+      <c r="F2">
+        <v>-0.06223701136793734</v>
+      </c>
+      <c r="G2">
+        <v>-0.04147970013971593</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.0414221576058262</v>
+        <v>0.02910128344975802</v>
       </c>
       <c r="C3">
-        <v>-0.1179450578185814</v>
+        <v>0.0791892453816203</v>
       </c>
       <c r="D3">
-        <v>-0.104607444892135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08964753976649149</v>
+      </c>
+      <c r="E3">
+        <v>0.06654503022146903</v>
+      </c>
+      <c r="F3">
+        <v>0.01320580487044806</v>
+      </c>
+      <c r="G3">
+        <v>0.03633301878419769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06142247822471219</v>
+        <v>0.05833873843550224</v>
       </c>
       <c r="C4">
-        <v>-0.05839109181784716</v>
+        <v>0.0644787262757248</v>
       </c>
       <c r="D4">
-        <v>-0.03363766159349371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06160757051675833</v>
+      </c>
+      <c r="E4">
+        <v>0.07041090339850964</v>
+      </c>
+      <c r="F4">
+        <v>-0.07765679050191693</v>
+      </c>
+      <c r="G4">
+        <v>0.03579826852168758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03911363048523678</v>
+        <v>0.03554778988674294</v>
       </c>
       <c r="C6">
-        <v>-0.03981627034598506</v>
+        <v>0.03216022080791103</v>
       </c>
       <c r="D6">
-        <v>-0.03038206629381281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06447948153515039</v>
+      </c>
+      <c r="E6">
+        <v>0.0730930958887214</v>
+      </c>
+      <c r="F6">
+        <v>-0.05485928572920604</v>
+      </c>
+      <c r="G6">
+        <v>0.02146752320546453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.02099807183301745</v>
+        <v>0.01833288350624106</v>
       </c>
       <c r="C7">
-        <v>-0.04367067194369831</v>
+        <v>0.03834890537415678</v>
       </c>
       <c r="D7">
-        <v>0.005932259866458506</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03901675629731834</v>
+      </c>
+      <c r="E7">
+        <v>0.04833504063933643</v>
+      </c>
+      <c r="F7">
+        <v>-0.0980658726592455</v>
+      </c>
+      <c r="G7">
+        <v>0.007475024623147618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004086054848821969</v>
+        <v>0.003609995796658222</v>
       </c>
       <c r="C8">
-        <v>-0.0304496854265767</v>
+        <v>0.02985109258684626</v>
       </c>
       <c r="D8">
-        <v>-0.0240290077834645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03274212736533435</v>
+      </c>
+      <c r="E8">
+        <v>0.04965421615628254</v>
+      </c>
+      <c r="F8">
+        <v>-0.03378291018069277</v>
+      </c>
+      <c r="G8">
+        <v>0.007546713627656037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03390782805262369</v>
+        <v>0.03719914213978041</v>
       </c>
       <c r="C9">
-        <v>-0.04450235710286044</v>
+        <v>0.05148177117957533</v>
       </c>
       <c r="D9">
-        <v>-0.01488057930422313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04409051559084701</v>
+      </c>
+      <c r="E9">
+        <v>0.05847465568576372</v>
+      </c>
+      <c r="F9">
+        <v>-0.08213764331803079</v>
+      </c>
+      <c r="G9">
+        <v>0.02158293112599992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08045289970041329</v>
+        <v>0.1002569664870108</v>
       </c>
       <c r="C10">
-        <v>0.1923810187312136</v>
+        <v>-0.1959857357456629</v>
       </c>
       <c r="D10">
-        <v>0.005762076065037773</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00456954239460222</v>
+      </c>
+      <c r="E10">
+        <v>0.04444541750228679</v>
+      </c>
+      <c r="F10">
+        <v>-0.03851226495690437</v>
+      </c>
+      <c r="G10">
+        <v>0.008754198967618634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04055243115341498</v>
+        <v>0.03646027569987042</v>
       </c>
       <c r="C11">
-        <v>-0.05508074234444724</v>
+        <v>0.05095453219355126</v>
       </c>
       <c r="D11">
-        <v>-0.01387193251801265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03491548194209938</v>
+      </c>
+      <c r="E11">
+        <v>0.0169501665299901</v>
+      </c>
+      <c r="F11">
+        <v>-0.06521001532932723</v>
+      </c>
+      <c r="G11">
+        <v>0.01414381762590096</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.04014384777762296</v>
+        <v>0.0373871111974664</v>
       </c>
       <c r="C12">
-        <v>-0.04935157933334285</v>
+        <v>0.04752023019466259</v>
       </c>
       <c r="D12">
-        <v>-0.003352331387265645</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02708441353921798</v>
+      </c>
+      <c r="E12">
+        <v>0.02455869643764758</v>
+      </c>
+      <c r="F12">
+        <v>-0.06396122796305705</v>
+      </c>
+      <c r="G12">
+        <v>0.01127063349591302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01317053331395926</v>
+        <v>0.01211886448175424</v>
       </c>
       <c r="C13">
-        <v>-0.05362277448433839</v>
+        <v>0.0459210128893317</v>
       </c>
       <c r="D13">
-        <v>-0.01748205858012694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05830412346210002</v>
+      </c>
+      <c r="E13">
+        <v>0.08310068055014692</v>
+      </c>
+      <c r="F13">
+        <v>-0.09272852635541243</v>
+      </c>
+      <c r="G13">
+        <v>0.01794885036989763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006307276364722659</v>
+        <v>0.00452643277720159</v>
       </c>
       <c r="C14">
-        <v>-0.03737714907196021</v>
+        <v>0.0335533548784385</v>
       </c>
       <c r="D14">
-        <v>0.01435280383608251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02530151103110799</v>
+      </c>
+      <c r="E14">
+        <v>0.03711403975731709</v>
+      </c>
+      <c r="F14">
+        <v>-0.09080989590890634</v>
+      </c>
+      <c r="G14">
+        <v>-0.006601233672425636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0003752939883407653</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005247954529892243</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.006960373990646571</v>
+      </c>
+      <c r="E15">
+        <v>0.002486545293416916</v>
+      </c>
+      <c r="F15">
+        <v>-0.005726016557486363</v>
+      </c>
+      <c r="G15">
+        <v>-0.0002230963459425396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03689348204017607</v>
+        <v>0.03422143670422197</v>
       </c>
       <c r="C16">
-        <v>-0.04800630410655254</v>
+        <v>0.04574147712451393</v>
       </c>
       <c r="D16">
-        <v>-0.008977452902452256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02809107998737916</v>
+      </c>
+      <c r="E16">
+        <v>0.03138377278156879</v>
+      </c>
+      <c r="F16">
+        <v>-0.06479846427724419</v>
+      </c>
+      <c r="G16">
+        <v>-0.0001978371255348168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02045188146327836</v>
+        <v>0.01665013471875425</v>
       </c>
       <c r="C19">
-        <v>-0.06334518181328701</v>
+        <v>0.05058100059909649</v>
       </c>
       <c r="D19">
-        <v>-0.08084417361137541</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.0920724485484864</v>
+      </c>
+      <c r="E19">
+        <v>0.09665248007979137</v>
+      </c>
+      <c r="F19">
+        <v>-0.06718904618534544</v>
+      </c>
+      <c r="G19">
+        <v>-0.02719956932751278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01625425864286158</v>
+        <v>0.01361917879131429</v>
       </c>
       <c r="C20">
-        <v>-0.04779437398740447</v>
+        <v>0.04123584563894012</v>
       </c>
       <c r="D20">
-        <v>-0.01396261113153409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04015396094331574</v>
+      </c>
+      <c r="E20">
+        <v>0.06857537069454718</v>
+      </c>
+      <c r="F20">
+        <v>-0.07526197641145502</v>
+      </c>
+      <c r="G20">
+        <v>0.004866783992965903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.009685240904987126</v>
+        <v>0.00900677820292156</v>
       </c>
       <c r="C21">
-        <v>-0.04887230109755934</v>
+        <v>0.045065997673888</v>
       </c>
       <c r="D21">
-        <v>-0.03603961639818717</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06721919832605669</v>
+      </c>
+      <c r="E21">
+        <v>0.1010376541586341</v>
+      </c>
+      <c r="F21">
+        <v>-0.1145656450589822</v>
+      </c>
+      <c r="G21">
+        <v>0.004671937278793757</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0003848889145076892</v>
+        <v>0.002396048173719887</v>
       </c>
       <c r="C22">
-        <v>-0.0002717818324069782</v>
+        <v>0.02480971850286028</v>
       </c>
       <c r="D22">
-        <v>-0.0007277063513057579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03945235792036358</v>
+      </c>
+      <c r="E22">
+        <v>0.03005315527059455</v>
+      </c>
+      <c r="F22">
+        <v>-0.01278895033623979</v>
+      </c>
+      <c r="G22">
+        <v>0.03932532995286402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0003848889145076892</v>
+        <v>0.002466644824879018</v>
       </c>
       <c r="C23">
-        <v>-0.0002717818324069782</v>
+        <v>0.02495672345425612</v>
       </c>
       <c r="D23">
-        <v>-0.0007277063513057579</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03912185911223243</v>
+      </c>
+      <c r="E23">
+        <v>0.03033452199384514</v>
+      </c>
+      <c r="F23">
+        <v>-0.01258871163657335</v>
+      </c>
+      <c r="G23">
+        <v>0.0395375271621464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03311394851421915</v>
+        <v>0.0338120150876562</v>
       </c>
       <c r="C24">
-        <v>-0.05100269090666254</v>
+        <v>0.05348797270450541</v>
       </c>
       <c r="D24">
-        <v>-0.007311680846732989</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02798040381214198</v>
+      </c>
+      <c r="E24">
+        <v>0.02905281387937823</v>
+      </c>
+      <c r="F24">
+        <v>-0.07381913975944772</v>
+      </c>
+      <c r="G24">
+        <v>0.008123718356529265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04686930788255596</v>
+        <v>0.04390481491157253</v>
       </c>
       <c r="C25">
-        <v>-0.06205832843972132</v>
+        <v>0.05750232007579018</v>
       </c>
       <c r="D25">
-        <v>0.000882001864000973</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0262952971198549</v>
+      </c>
+      <c r="E25">
+        <v>0.02340425210411322</v>
+      </c>
+      <c r="F25">
+        <v>-0.07583919964262903</v>
+      </c>
+      <c r="G25">
+        <v>0.02461672265601863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01465826308502392</v>
+        <v>0.01404329814913642</v>
       </c>
       <c r="C26">
-        <v>-0.01723903910683537</v>
+        <v>0.01833420978384757</v>
       </c>
       <c r="D26">
-        <v>0.0008683967392384366</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0249046077635854</v>
+      </c>
+      <c r="E26">
+        <v>0.04032778127307176</v>
+      </c>
+      <c r="F26">
+        <v>-0.06413712232084429</v>
+      </c>
+      <c r="G26">
+        <v>-0.01442117067408217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09730457140293251</v>
+        <v>0.1351809916885648</v>
       </c>
       <c r="C28">
-        <v>0.2363254109242484</v>
+        <v>-0.2464594130529194</v>
       </c>
       <c r="D28">
-        <v>0.005821872837695029</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01816103481189708</v>
+      </c>
+      <c r="E28">
+        <v>0.0573857400431796</v>
+      </c>
+      <c r="F28">
+        <v>-0.0545391189172529</v>
+      </c>
+      <c r="G28">
+        <v>0.01913405280264353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006524463952273094</v>
+        <v>0.005822931985179563</v>
       </c>
       <c r="C29">
-        <v>-0.02995472572048944</v>
+        <v>0.02928729822576039</v>
       </c>
       <c r="D29">
-        <v>0.01817152746343537</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01921439446076392</v>
+      </c>
+      <c r="E29">
+        <v>0.03791593776513717</v>
+      </c>
+      <c r="F29">
+        <v>-0.08528391634369015</v>
+      </c>
+      <c r="G29">
+        <v>0.007049856860561273</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04680620533168942</v>
+        <v>0.04236372182898593</v>
       </c>
       <c r="C30">
-        <v>-0.06432294834206688</v>
+        <v>0.06493107203620803</v>
       </c>
       <c r="D30">
-        <v>-0.07572061586412449</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1097817047483286</v>
+      </c>
+      <c r="E30">
+        <v>0.0615467558691914</v>
+      </c>
+      <c r="F30">
+        <v>-0.08350133417032803</v>
+      </c>
+      <c r="G30">
+        <v>-0.01468635336354682</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05350452212199575</v>
+        <v>0.05543612957492413</v>
       </c>
       <c r="C31">
-        <v>-0.03877258698511293</v>
+        <v>0.05764140093239675</v>
       </c>
       <c r="D31">
-        <v>0.02880538651173404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0111371065176208</v>
+      </c>
+      <c r="E31">
+        <v>0.06254927465825851</v>
+      </c>
+      <c r="F31">
+        <v>-0.06881295974855406</v>
+      </c>
+      <c r="G31">
+        <v>0.04569640356945381</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.002287270294133041</v>
+        <v>0.004408738636087261</v>
       </c>
       <c r="C32">
-        <v>-0.03616546043609484</v>
+        <v>0.03453777453659764</v>
       </c>
       <c r="D32">
-        <v>-0.03981169778134679</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05351252664775485</v>
+      </c>
+      <c r="E32">
+        <v>0.04234427813801832</v>
+      </c>
+      <c r="F32">
+        <v>-0.06435211731918629</v>
+      </c>
+      <c r="G32">
+        <v>-0.01108546317949085</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02706509023052997</v>
+        <v>0.02472010532259009</v>
       </c>
       <c r="C33">
-        <v>-0.05915652071070771</v>
+        <v>0.05475862851925375</v>
       </c>
       <c r="D33">
-        <v>-0.04528185646978945</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08105066951584998</v>
+      </c>
+      <c r="E33">
+        <v>0.07304248422596782</v>
+      </c>
+      <c r="F33">
+        <v>-0.1145726861072342</v>
+      </c>
+      <c r="G33">
+        <v>0.0183779723274517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04521126803881739</v>
+        <v>0.04123445937558261</v>
       </c>
       <c r="C34">
-        <v>-0.06585932872761878</v>
+        <v>0.06434651199863316</v>
       </c>
       <c r="D34">
-        <v>-0.01057758982219038</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03517389575031021</v>
+      </c>
+      <c r="E34">
+        <v>0.003551492477626348</v>
+      </c>
+      <c r="F34">
+        <v>-0.07602816099902528</v>
+      </c>
+      <c r="G34">
+        <v>0.00953159962767759</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01352922501575458</v>
+        <v>0.01301617531894414</v>
       </c>
       <c r="C36">
-        <v>-0.014237113171442</v>
+        <v>0.01317412609637629</v>
       </c>
       <c r="D36">
-        <v>0.003884448682946043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.026692131009983</v>
+      </c>
+      <c r="E36">
+        <v>0.04770794328717588</v>
+      </c>
+      <c r="F36">
+        <v>-0.07115941519524353</v>
+      </c>
+      <c r="G36">
+        <v>0.008362673144662342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03104705629131036</v>
+        <v>0.02480869134345469</v>
       </c>
       <c r="C38">
-        <v>-0.0287692912239755</v>
+        <v>0.02364881988204772</v>
       </c>
       <c r="D38">
-        <v>0.005455266890355597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02743992199744376</v>
+      </c>
+      <c r="E38">
+        <v>0.04547773081782618</v>
+      </c>
+      <c r="F38">
+        <v>-0.0586059377982187</v>
+      </c>
+      <c r="G38">
+        <v>0.001248495051123507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.04452625900579549</v>
+        <v>0.03981591626442157</v>
       </c>
       <c r="C39">
-        <v>-0.07090986813418758</v>
+        <v>0.0681551212717528</v>
       </c>
       <c r="D39">
-        <v>-0.01953297379904261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05563581263114212</v>
+      </c>
+      <c r="E39">
+        <v>0.03331811512393042</v>
+      </c>
+      <c r="F39">
+        <v>-0.08442607413647774</v>
+      </c>
+      <c r="G39">
+        <v>-0.01483520439135903</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01310735569901163</v>
+        <v>0.0139992193769488</v>
       </c>
       <c r="C40">
-        <v>-0.05273261571416953</v>
+        <v>0.0397275928412091</v>
       </c>
       <c r="D40">
-        <v>-0.02242069570509398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.038183635205867</v>
+      </c>
+      <c r="E40">
+        <v>0.07389178041472262</v>
+      </c>
+      <c r="F40">
+        <v>-0.06944090698759919</v>
+      </c>
+      <c r="G40">
+        <v>0.0379996810264914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01898050187973476</v>
+        <v>0.01798067303197377</v>
       </c>
       <c r="C41">
-        <v>-0.005114736922753646</v>
+        <v>0.0080693351095136</v>
       </c>
       <c r="D41">
-        <v>0.003066394727030499</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01468750208180985</v>
+      </c>
+      <c r="E41">
+        <v>0.04994808788709767</v>
+      </c>
+      <c r="F41">
+        <v>-0.0593826298238959</v>
+      </c>
+      <c r="G41">
+        <v>0.0009614879249299597</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03615382820549352</v>
+        <v>0.02855792134360394</v>
       </c>
       <c r="C43">
-        <v>-0.02359762908756405</v>
+        <v>0.02245884892665645</v>
       </c>
       <c r="D43">
-        <v>-0.02082165332003121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04080283061975383</v>
+      </c>
+      <c r="E43">
+        <v>0.06040794155829907</v>
+      </c>
+      <c r="F43">
+        <v>-0.06968555875182873</v>
+      </c>
+      <c r="G43">
+        <v>0.02054796450921366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01258307238236858</v>
+        <v>0.01468877438850372</v>
       </c>
       <c r="C44">
-        <v>-0.06499538759902954</v>
+        <v>0.05117775491952117</v>
       </c>
       <c r="D44">
-        <v>-0.01578678122305666</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04262663874676082</v>
+      </c>
+      <c r="E44">
+        <v>0.08008887408077787</v>
+      </c>
+      <c r="F44">
+        <v>-0.07178011046390981</v>
+      </c>
+      <c r="G44">
+        <v>-0.008272986515873822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.004745469114976236</v>
+        <v>0.007711085401826304</v>
       </c>
       <c r="C46">
-        <v>-0.02232500283712601</v>
+        <v>0.02702815757213376</v>
       </c>
       <c r="D46">
-        <v>0.02117860085776177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01157379527276588</v>
+      </c>
+      <c r="E46">
+        <v>0.04781749296180094</v>
+      </c>
+      <c r="F46">
+        <v>-0.09703175256368857</v>
+      </c>
+      <c r="G46">
+        <v>-0.001032593448172333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08129024683731924</v>
+        <v>0.0873715836397876</v>
       </c>
       <c r="C47">
-        <v>-0.06947815870041356</v>
+        <v>0.08043167552005473</v>
       </c>
       <c r="D47">
-        <v>0.02542923539077214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01572874446471283</v>
+      </c>
+      <c r="E47">
+        <v>0.06599257778360104</v>
+      </c>
+      <c r="F47">
+        <v>-0.07337036333929854</v>
+      </c>
+      <c r="G47">
+        <v>0.04958133508049706</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01798940333449158</v>
+        <v>0.0154136100175027</v>
       </c>
       <c r="C48">
-        <v>-0.01346846264389295</v>
+        <v>0.01709390088939577</v>
       </c>
       <c r="D48">
-        <v>0.01523583211121795</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01706153771807856</v>
+      </c>
+      <c r="E48">
+        <v>0.0589168822585762</v>
+      </c>
+      <c r="F48">
+        <v>-0.08710387078995266</v>
+      </c>
+      <c r="G48">
+        <v>0.006494700768502902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07904243711037642</v>
+        <v>0.07099992365673123</v>
       </c>
       <c r="C50">
-        <v>-0.07508032512773273</v>
+        <v>0.07339312351812478</v>
       </c>
       <c r="D50">
-        <v>0.02943079296698926</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003210728643202748</v>
+      </c>
+      <c r="E50">
+        <v>0.06874616337642897</v>
+      </c>
+      <c r="F50">
+        <v>-0.05543422293247703</v>
+      </c>
+      <c r="G50">
+        <v>0.06978778413468328</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01472677472566232</v>
+        <v>0.01096904397330541</v>
       </c>
       <c r="C51">
-        <v>-0.05033289869674411</v>
+        <v>0.03420966469758856</v>
       </c>
       <c r="D51">
-        <v>-0.02425249883733439</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.05040754545413428</v>
+      </c>
+      <c r="E51">
+        <v>0.03702756101604822</v>
+      </c>
+      <c r="F51">
+        <v>-0.07359856116889552</v>
+      </c>
+      <c r="G51">
+        <v>-0.02142722786130435</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07992480648492047</v>
+        <v>0.09354962051034107</v>
       </c>
       <c r="C53">
-        <v>-0.0771225906142112</v>
+        <v>0.08706464548803215</v>
       </c>
       <c r="D53">
-        <v>0.03876733322663568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03896423601603644</v>
+      </c>
+      <c r="E53">
+        <v>0.06404368725031788</v>
+      </c>
+      <c r="F53">
+        <v>-0.08518912664835063</v>
+      </c>
+      <c r="G53">
+        <v>0.06270688907418071</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02918460483710214</v>
+        <v>0.02766650899300258</v>
       </c>
       <c r="C54">
-        <v>-0.02830490895386744</v>
+        <v>0.02804739237833682</v>
       </c>
       <c r="D54">
-        <v>-0.000565971092885194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03013174075910199</v>
+      </c>
+      <c r="E54">
+        <v>0.0463478243185837</v>
+      </c>
+      <c r="F54">
+        <v>-0.09539183012948424</v>
+      </c>
+      <c r="G54">
+        <v>0.007399494809861503</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07371527568503182</v>
+        <v>0.08483870474186397</v>
       </c>
       <c r="C55">
-        <v>-0.05937704782642485</v>
+        <v>0.07025517101594572</v>
       </c>
       <c r="D55">
-        <v>0.04752180442739234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04720945336844123</v>
+      </c>
+      <c r="E55">
+        <v>0.04934258733216285</v>
+      </c>
+      <c r="F55">
+        <v>-0.05898203584976136</v>
+      </c>
+      <c r="G55">
+        <v>0.05118702364126238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1429493476987991</v>
+        <v>0.1470796504103203</v>
       </c>
       <c r="C56">
-        <v>-0.09549881493019736</v>
+        <v>0.1048547724135873</v>
       </c>
       <c r="D56">
-        <v>0.04314308079158691</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04752573257367888</v>
+      </c>
+      <c r="E56">
+        <v>0.05268575125777081</v>
+      </c>
+      <c r="F56">
+        <v>-0.04541452744202159</v>
+      </c>
+      <c r="G56">
+        <v>0.05730366110554051</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.001446921689882891</v>
+        <v>0.0007318785347473793</v>
       </c>
       <c r="C57">
-        <v>0.002498449400030852</v>
+        <v>-0.001215193104683971</v>
       </c>
       <c r="D57">
-        <v>-0.01350223470905055</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01078300379574223</v>
+      </c>
+      <c r="E57">
+        <v>0.008740049974414087</v>
+      </c>
+      <c r="F57">
+        <v>-0.006911783973551655</v>
+      </c>
+      <c r="G57">
+        <v>-3.742611260387703e-05</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.05021171572127774</v>
+        <v>0.02999287011091723</v>
       </c>
       <c r="C58">
-        <v>-0.03224395710906314</v>
+        <v>0.03204288026042139</v>
       </c>
       <c r="D58">
-        <v>-0.7112069386964057</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4190768910112349</v>
+      </c>
+      <c r="E58">
+        <v>0.6446163767876985</v>
+      </c>
+      <c r="F58">
+        <v>0.5577525546979069</v>
+      </c>
+      <c r="G58">
+        <v>-0.06588039145073586</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1365556651573016</v>
+        <v>0.1449360063284091</v>
       </c>
       <c r="C59">
-        <v>0.1908400485410233</v>
+        <v>-0.186077822622089</v>
       </c>
       <c r="D59">
-        <v>-0.02147349107963973</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02968264702317096</v>
+      </c>
+      <c r="E59">
+        <v>0.02625486881083824</v>
+      </c>
+      <c r="F59">
+        <v>-0.01870191864456629</v>
+      </c>
+      <c r="G59">
+        <v>-0.02955234172555058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3076588654935165</v>
+        <v>0.2822534194031757</v>
       </c>
       <c r="C60">
-        <v>-0.1014477352053546</v>
+        <v>0.100254184992467</v>
       </c>
       <c r="D60">
-        <v>-0.1289544856846229</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2199194094641517</v>
+      </c>
+      <c r="E60">
+        <v>-0.2733897131399732</v>
+      </c>
+      <c r="F60">
+        <v>0.08937657820348409</v>
+      </c>
+      <c r="G60">
+        <v>0.05079988759712361</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.04201923369720343</v>
+        <v>0.04094984220051939</v>
       </c>
       <c r="C61">
-        <v>-0.06581773703162774</v>
+        <v>0.06265575536250902</v>
       </c>
       <c r="D61">
-        <v>-0.01416485664567901</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04671417039526211</v>
+      </c>
+      <c r="E61">
+        <v>0.03747003003493474</v>
+      </c>
+      <c r="F61">
+        <v>-0.07548053060311366</v>
+      </c>
+      <c r="G61">
+        <v>0.01092886852669168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01502876273568023</v>
+        <v>0.0149041344829432</v>
       </c>
       <c r="C63">
-        <v>-0.03287445897201048</v>
+        <v>0.03170977604463233</v>
       </c>
       <c r="D63">
-        <v>0.01046417739902206</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02137366081286239</v>
+      </c>
+      <c r="E63">
+        <v>0.05132036660034513</v>
+      </c>
+      <c r="F63">
+        <v>-0.06724164440936928</v>
+      </c>
+      <c r="G63">
+        <v>0.02745679944705081</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04818097957911956</v>
+        <v>0.05587293719223944</v>
       </c>
       <c r="C64">
-        <v>-0.04376747106876504</v>
+        <v>0.05561366064228004</v>
       </c>
       <c r="D64">
-        <v>-0.001976327777360812</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008576926554744874</v>
+      </c>
+      <c r="E64">
+        <v>0.0337180809340815</v>
+      </c>
+      <c r="F64">
+        <v>-0.08436288537164786</v>
+      </c>
+      <c r="G64">
+        <v>0.009538913676227568</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.0866220503620302</v>
+        <v>0.07000491123935262</v>
       </c>
       <c r="C65">
-        <v>-0.03606644794052742</v>
+        <v>0.03338115565001835</v>
       </c>
       <c r="D65">
-        <v>-0.05341140592477325</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0874129206956638</v>
+      </c>
+      <c r="E65">
+        <v>0.03774862727939098</v>
+      </c>
+      <c r="F65">
+        <v>-0.004368400055191006</v>
+      </c>
+      <c r="G65">
+        <v>0.00266639952150067</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.06174038267292881</v>
+        <v>0.05231499094926689</v>
       </c>
       <c r="C66">
-        <v>-0.1005339630916169</v>
+        <v>0.08961074049367657</v>
       </c>
       <c r="D66">
-        <v>-0.04221948763966545</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08269581533139342</v>
+      </c>
+      <c r="E66">
+        <v>0.03936285851431526</v>
+      </c>
+      <c r="F66">
+        <v>-0.08608853925760196</v>
+      </c>
+      <c r="G66">
+        <v>0.002168114188083217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05285259495807295</v>
+        <v>0.0466695002555383</v>
       </c>
       <c r="C67">
-        <v>-0.03409984030038966</v>
+        <v>0.03017756927395633</v>
       </c>
       <c r="D67">
-        <v>0.007433698268431897</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01393499329007276</v>
+      </c>
+      <c r="E67">
+        <v>0.02550548271384729</v>
+      </c>
+      <c r="F67">
+        <v>-0.04871464533986636</v>
+      </c>
+      <c r="G67">
+        <v>0.007800511322680798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1319211681124758</v>
+        <v>0.1505210970205479</v>
       </c>
       <c r="C68">
-        <v>0.2811799695305464</v>
+        <v>-0.2485885082604593</v>
       </c>
       <c r="D68">
-        <v>0.01271806539430663</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01750336169145968</v>
+      </c>
+      <c r="E68">
+        <v>0.04211004415834953</v>
+      </c>
+      <c r="F68">
+        <v>-0.0135319864853823</v>
+      </c>
+      <c r="G68">
+        <v>0.01013264535795506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08845073765091691</v>
+        <v>0.08711760295296624</v>
       </c>
       <c r="C69">
-        <v>-0.0682258687515038</v>
+        <v>0.08727375782366863</v>
       </c>
       <c r="D69">
-        <v>0.03755205330712635</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00777543470888721</v>
+      </c>
+      <c r="E69">
+        <v>0.04947590510646831</v>
+      </c>
+      <c r="F69">
+        <v>-0.09031740447325493</v>
+      </c>
+      <c r="G69">
+        <v>0.02805833311959448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1220583854135599</v>
+        <v>0.1428856215686173</v>
       </c>
       <c r="C71">
-        <v>0.2476140958786194</v>
+        <v>-0.2353990722424304</v>
       </c>
       <c r="D71">
-        <v>-0.02267755053598006</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01285591400662</v>
+      </c>
+      <c r="E71">
+        <v>0.06279249162305517</v>
+      </c>
+      <c r="F71">
+        <v>-0.05434935082371643</v>
+      </c>
+      <c r="G71">
+        <v>0.0363953378481771</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08788299336089811</v>
+        <v>0.09793353072172249</v>
       </c>
       <c r="C72">
-        <v>-0.05332950407975036</v>
+        <v>0.05729971766002952</v>
       </c>
       <c r="D72">
-        <v>-0.004276141128553701</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02870626444634529</v>
+      </c>
+      <c r="E72">
+        <v>0.01520151433850629</v>
+      </c>
+      <c r="F72">
+        <v>-0.07161233189265595</v>
+      </c>
+      <c r="G72">
+        <v>0.03329466344231985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.40795676266797</v>
+        <v>0.3463219086354333</v>
       </c>
       <c r="C73">
-        <v>-0.07161433391267848</v>
+        <v>0.0755914456035672</v>
       </c>
       <c r="D73">
-        <v>-0.3398539024910633</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4581623991418276</v>
+      </c>
+      <c r="E73">
+        <v>-0.4847271998246117</v>
+      </c>
+      <c r="F73">
+        <v>0.2413683049654209</v>
+      </c>
+      <c r="G73">
+        <v>0.1077464703886056</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1062092794903541</v>
+        <v>0.1106817566443023</v>
       </c>
       <c r="C74">
-        <v>-0.09789052614456487</v>
+        <v>0.09669879651643812</v>
       </c>
       <c r="D74">
-        <v>0.02172529833447607</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03026877426945906</v>
+      </c>
+      <c r="E74">
+        <v>0.06607076248025981</v>
+      </c>
+      <c r="F74">
+        <v>-0.04873668693223696</v>
+      </c>
+      <c r="G74">
+        <v>0.07229487660578164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2517269815338526</v>
+        <v>0.2572837949736546</v>
       </c>
       <c r="C75">
-        <v>-0.1074927582860861</v>
+        <v>0.1302933101789842</v>
       </c>
       <c r="D75">
-        <v>0.08651213643614096</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.126157067245635</v>
+      </c>
+      <c r="E75">
+        <v>0.07201302841525394</v>
+      </c>
+      <c r="F75">
+        <v>-0.01780116218851107</v>
+      </c>
+      <c r="G75">
+        <v>0.07367578089785717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1118081586571522</v>
+        <v>0.1274115713670895</v>
       </c>
       <c r="C76">
-        <v>-0.08975891439587905</v>
+        <v>0.09879647381535404</v>
       </c>
       <c r="D76">
-        <v>0.0446943587772781</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05653181687148661</v>
+      </c>
+      <c r="E76">
+        <v>0.07910039091012502</v>
+      </c>
+      <c r="F76">
+        <v>-0.06980977691529637</v>
+      </c>
+      <c r="G76">
+        <v>0.05608618045490479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07702982856145893</v>
+        <v>0.06318406392542657</v>
       </c>
       <c r="C77">
-        <v>-0.064459121240778</v>
+        <v>0.07455574076482495</v>
       </c>
       <c r="D77">
-        <v>-0.0563427691916453</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06612447991190681</v>
+      </c>
+      <c r="E77">
+        <v>0.09412633168455861</v>
+      </c>
+      <c r="F77">
+        <v>-0.1068190400797134</v>
+      </c>
+      <c r="G77">
+        <v>-0.1360696044836975</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04638744448365189</v>
+        <v>0.04361158538199156</v>
       </c>
       <c r="C78">
-        <v>-0.05211852622935598</v>
+        <v>0.06064287768661315</v>
       </c>
       <c r="D78">
-        <v>-0.02509166039463639</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06623951834213997</v>
+      </c>
+      <c r="E78">
+        <v>0.04510967999245873</v>
+      </c>
+      <c r="F78">
+        <v>-0.08359504441394326</v>
+      </c>
+      <c r="G78">
+        <v>0.006275948228082011</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02727697874431904</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.04116628016208549</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05988446643617838</v>
+      </c>
+      <c r="E79">
+        <v>0.06361606171361406</v>
+      </c>
+      <c r="F79">
+        <v>-0.03447979413534218</v>
+      </c>
+      <c r="G79">
+        <v>0.07718643747940782</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.04445297136890337</v>
+        <v>0.03428755213488528</v>
       </c>
       <c r="C80">
-        <v>-0.05611815627677897</v>
+        <v>0.05577129816939821</v>
       </c>
       <c r="D80">
-        <v>-0.03095479392334729</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.0450153092844329</v>
+      </c>
+      <c r="E80">
+        <v>0.01590873016220801</v>
+      </c>
+      <c r="F80">
+        <v>-0.03109151909206298</v>
+      </c>
+      <c r="G80">
+        <v>-0.04763520579018363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1395437177810626</v>
+        <v>0.140435545561313</v>
       </c>
       <c r="C81">
-        <v>-0.08133262726822243</v>
+        <v>0.09516983514121616</v>
       </c>
       <c r="D81">
-        <v>0.06732136936987942</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09940964922782007</v>
+      </c>
+      <c r="E81">
+        <v>0.08662499990622162</v>
+      </c>
+      <c r="F81">
+        <v>-0.009416083187446368</v>
+      </c>
+      <c r="G81">
+        <v>0.0517013779258251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1599760231092777</v>
+        <v>0.2030640524233438</v>
       </c>
       <c r="C82">
-        <v>-0.07689264344381823</v>
+        <v>0.1410222593609131</v>
       </c>
       <c r="D82">
-        <v>0.1565304139803317</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2322238348631255</v>
+      </c>
+      <c r="E82">
+        <v>0.007377247429458459</v>
+      </c>
+      <c r="F82">
+        <v>-0.1029306459593656</v>
+      </c>
+      <c r="G82">
+        <v>0.04861645236770244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.04033971352023588</v>
+        <v>0.02831014955677475</v>
       </c>
       <c r="C83">
-        <v>-0.0285452276562704</v>
+        <v>0.04325295181136769</v>
       </c>
       <c r="D83">
-        <v>-0.03222271155719308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0345870217798108</v>
+      </c>
+      <c r="E83">
+        <v>0.02007701693553014</v>
+      </c>
+      <c r="F83">
+        <v>-0.03925099683566399</v>
+      </c>
+      <c r="G83">
+        <v>-0.02161564469641942</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.994597387833516e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.0001085904556305584</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.0001985392553598894</v>
+      </c>
+      <c r="E84">
+        <v>9.576528179531613e-05</v>
+      </c>
+      <c r="F84">
+        <v>-0.0007575966990078824</v>
+      </c>
+      <c r="G84">
+        <v>0.0003983920890634265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2173476483494536</v>
+        <v>0.2031700419804769</v>
       </c>
       <c r="C85">
-        <v>-0.1063676086554937</v>
+        <v>0.1163397156100396</v>
       </c>
       <c r="D85">
-        <v>0.1128339258693953</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09680418369349307</v>
+      </c>
+      <c r="E85">
+        <v>0.001204396404419488</v>
+      </c>
+      <c r="F85">
+        <v>0.004566343945913778</v>
+      </c>
+      <c r="G85">
+        <v>0.1274222300386827</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.008742216037730578</v>
+        <v>0.01024496935799148</v>
       </c>
       <c r="C86">
-        <v>-0.04071998410010776</v>
+        <v>0.03109415368340807</v>
       </c>
       <c r="D86">
-        <v>-0.04085682665065923</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06530404829839018</v>
+      </c>
+      <c r="E86">
+        <v>0.06492126647715095</v>
+      </c>
+      <c r="F86">
+        <v>-0.1226045231463811</v>
+      </c>
+      <c r="G86">
+        <v>-0.0175755050225924</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.0237844755694512</v>
+        <v>0.02246315298230115</v>
       </c>
       <c r="C87">
-        <v>-0.0127670274327061</v>
+        <v>0.02028112040543355</v>
       </c>
       <c r="D87">
-        <v>-0.09430534234371735</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09235130840364041</v>
+      </c>
+      <c r="E87">
+        <v>0.1115034007114966</v>
+      </c>
+      <c r="F87">
+        <v>-0.0642867981252804</v>
+      </c>
+      <c r="G87">
+        <v>-0.04287950930629467</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.1046091349107581</v>
+        <v>0.09286215042480633</v>
       </c>
       <c r="C88">
-        <v>-0.0703610051755066</v>
+        <v>0.06333417352053401</v>
       </c>
       <c r="D88">
-        <v>0.02659094849218028</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007110604978730442</v>
+      </c>
+      <c r="E88">
+        <v>0.044091588923678</v>
+      </c>
+      <c r="F88">
+        <v>-0.06970986387455952</v>
+      </c>
+      <c r="G88">
+        <v>-0.02823535066994741</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1910837768090588</v>
+        <v>0.2200974816154391</v>
       </c>
       <c r="C89">
-        <v>0.376837801145522</v>
+        <v>-0.3796254721048279</v>
       </c>
       <c r="D89">
-        <v>0.0207253823492636</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.00768842265362194</v>
+      </c>
+      <c r="E89">
+        <v>0.06285194494717289</v>
+      </c>
+      <c r="F89">
+        <v>-0.075083796957891</v>
+      </c>
+      <c r="G89">
+        <v>-0.06544256378063518</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1828664242686875</v>
+        <v>0.2000293774938455</v>
       </c>
       <c r="C90">
-        <v>0.3355404135165771</v>
+        <v>-0.3139092425360681</v>
       </c>
       <c r="D90">
-        <v>0.01783266561697785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01364754979300851</v>
+      </c>
+      <c r="E90">
+        <v>0.07207078881621458</v>
+      </c>
+      <c r="F90">
+        <v>-0.04147072475622978</v>
+      </c>
+      <c r="G90">
+        <v>-0.0135386287420842</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1875580375730798</v>
+        <v>0.1856399072328417</v>
       </c>
       <c r="C91">
-        <v>-0.1291959078763802</v>
+        <v>0.1406182345339488</v>
       </c>
       <c r="D91">
-        <v>0.08388431100930893</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1063758451103888</v>
+      </c>
+      <c r="E91">
+        <v>0.06394839742434674</v>
+      </c>
+      <c r="F91">
+        <v>-0.03698822358538775</v>
+      </c>
+      <c r="G91">
+        <v>0.05727419338227282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.168910922682657</v>
+        <v>0.1816378553967981</v>
       </c>
       <c r="C92">
-        <v>0.282926427888914</v>
+        <v>-0.2859749247679291</v>
       </c>
       <c r="D92">
-        <v>-0.0001352533212145581</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.006418259188282599</v>
+      </c>
+      <c r="E92">
+        <v>0.07299728768818416</v>
+      </c>
+      <c r="F92">
+        <v>-0.08384893805491248</v>
+      </c>
+      <c r="G92">
+        <v>-0.01038516240885203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2058866662792484</v>
+        <v>0.223476017000699</v>
       </c>
       <c r="C93">
-        <v>0.3349122082247193</v>
+        <v>-0.3188426252268642</v>
       </c>
       <c r="D93">
-        <v>0.0128241965141338</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.006063311703651009</v>
+      </c>
+      <c r="E93">
+        <v>0.0480914123383105</v>
+      </c>
+      <c r="F93">
+        <v>-0.04113563078353346</v>
+      </c>
+      <c r="G93">
+        <v>0.02588221556386437</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3384738685856505</v>
+        <v>0.3443435723558473</v>
       </c>
       <c r="C94">
-        <v>-0.1524613219791656</v>
+        <v>0.1824464400673488</v>
       </c>
       <c r="D94">
-        <v>0.4471946527353896</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.5048466450848228</v>
+      </c>
+      <c r="E94">
+        <v>0.04074172698350264</v>
+      </c>
+      <c r="F94">
+        <v>0.4560803147494972</v>
+      </c>
+      <c r="G94">
+        <v>-0.3224712472421988</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1088709483925517</v>
+        <v>0.08427698250088438</v>
       </c>
       <c r="C95">
-        <v>-0.07941489059104131</v>
+        <v>0.06678868312637772</v>
       </c>
       <c r="D95">
-        <v>-0.1240765192647131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1665688161559505</v>
+      </c>
+      <c r="E95">
+        <v>-0.1084300087115296</v>
+      </c>
+      <c r="F95">
+        <v>-0.215135381553712</v>
+      </c>
+      <c r="G95">
+        <v>-0.8684222735434827</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1956945501922739</v>
+        <v>0.1878729865551972</v>
       </c>
       <c r="C98">
-        <v>-0.02103371211601843</v>
+        <v>0.03952963022485088</v>
       </c>
       <c r="D98">
-        <v>-0.1286531669104679</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1830007661104729</v>
+      </c>
+      <c r="E98">
+        <v>-0.1545100630604211</v>
+      </c>
+      <c r="F98">
+        <v>0.0323743742994551</v>
+      </c>
+      <c r="G98">
+        <v>0.09921234980952004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006472450465120301</v>
+        <v>0.00587556470140707</v>
       </c>
       <c r="C101">
-        <v>-0.02996936630537155</v>
+        <v>0.0290300027294776</v>
       </c>
       <c r="D101">
-        <v>0.01875261342280881</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01868575548745787</v>
+      </c>
+      <c r="E101">
+        <v>0.03857670855363331</v>
+      </c>
+      <c r="F101">
+        <v>-0.08496072974609685</v>
+      </c>
+      <c r="G101">
+        <v>0.005963901733770113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1208803397227181</v>
+        <v>0.1247153719998615</v>
       </c>
       <c r="C102">
-        <v>-0.07446454745905941</v>
+        <v>0.09856831762429424</v>
       </c>
       <c r="D102">
-        <v>0.02677695083130005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04618960479258573</v>
+      </c>
+      <c r="E102">
+        <v>-0.001605758750102277</v>
+      </c>
+      <c r="F102">
+        <v>-0.04596764192555222</v>
+      </c>
+      <c r="G102">
+        <v>0.01719887994580948</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
